--- a/db/load/cdisc/ct/changes/2021-06-25/SEND Terminology Changes 2021-06-25.xlsx
+++ b/db/load/cdisc/ct/changes/2021-06-25/SEND Terminology Changes 2021-06-25.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-06-25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8456DA08-E664-F84E-B2FB-1DF01369C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B415CF4-AB66-B842-A7C4-BEFD114B77E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="4820" windowWidth="21580" windowHeight="9020"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="35980" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEND Terminology Changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEND Terminology Changes'!$A$1:$K$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEND Terminology Changes'!$A$1:$Q$136</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="255">
   <si>
     <t>Release Date</t>
   </si>
@@ -770,14 +772,41 @@
   </si>
   <si>
     <t>Remove C170615 from codelist and replace with C176236. Specify the ratio relationship in the PPANMETH variable.</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Prev Codelist</t>
+  </si>
+  <si>
+    <t>Prev Term</t>
+  </si>
+  <si>
+    <t>New Codelists</t>
+  </si>
+  <si>
+    <t>New Terms</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>C88025</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -799,7 +828,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -857,21 +892,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,12 +921,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 23 2" xfId="2"/>
-    <cellStyle name="Normal 28" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 23 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 28" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1168,12 +1209,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P143" sqref="P143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1183,12 +1225,14 @@
     <col min="3" max="4" width="10.6640625" style="5" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" style="5" customWidth="1"/>
     <col min="7" max="8" width="24.6640625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="45.6640625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="26.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="5"/>
+    <col min="12" max="16" width="9.1640625" style="5"/>
+    <col min="17" max="17" width="45.83203125" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1222,8 +1266,26 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>44372</v>
       </c>
@@ -1257,8 +1319,16 @@
       <c r="K2" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>44372</v>
       </c>
@@ -1290,8 +1360,14 @@
         <v>106</v>
       </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>44372</v>
       </c>
@@ -1325,8 +1401,16 @@
       <c r="K4" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L4" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>44372</v>
       </c>
@@ -1360,8 +1444,16 @@
       <c r="K5" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L5" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>44372</v>
       </c>
@@ -1395,8 +1487,16 @@
       <c r="K6" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L6" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>44372</v>
       </c>
@@ -1430,8 +1530,16 @@
       <c r="K7" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L7" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>44372</v>
       </c>
@@ -1463,8 +1571,14 @@
         <v>122</v>
       </c>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>44372</v>
       </c>
@@ -1498,8 +1612,16 @@
       <c r="K9" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L9" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>44372</v>
       </c>
@@ -1533,8 +1655,16 @@
       <c r="K10" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L10" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>44372</v>
       </c>
@@ -1568,8 +1698,16 @@
       <c r="K11" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>44372</v>
       </c>
@@ -1601,8 +1739,14 @@
         <v>127</v>
       </c>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>44372</v>
       </c>
@@ -1634,8 +1778,14 @@
         <v>129</v>
       </c>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>44372</v>
       </c>
@@ -1667,8 +1817,14 @@
         <v>136</v>
       </c>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>44372</v>
       </c>
@@ -1700,8 +1856,14 @@
         <v>138</v>
       </c>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>44372</v>
       </c>
@@ -1733,8 +1895,14 @@
         <v>143</v>
       </c>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>44372</v>
       </c>
@@ -1768,8 +1936,16 @@
       <c r="K17" s="13" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L17" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>44372</v>
       </c>
@@ -1801,8 +1977,16 @@
         <v>181</v>
       </c>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>44372</v>
       </c>
@@ -1834,8 +2018,14 @@
         <v>193</v>
       </c>
       <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>44372</v>
       </c>
@@ -1867,8 +2057,14 @@
         <v>195</v>
       </c>
       <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>44372</v>
       </c>
@@ -1900,8 +2096,14 @@
         <v>41</v>
       </c>
       <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>44372</v>
       </c>
@@ -1933,8 +2135,14 @@
         <v>201</v>
       </c>
       <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>44372</v>
       </c>
@@ -1966,8 +2174,14 @@
         <v>203</v>
       </c>
       <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>44372</v>
       </c>
@@ -1999,8 +2213,14 @@
         <v>205</v>
       </c>
       <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>44372</v>
       </c>
@@ -2032,8 +2252,14 @@
         <v>207</v>
       </c>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>44372</v>
       </c>
@@ -2065,8 +2291,14 @@
         <v>209</v>
       </c>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>44372</v>
       </c>
@@ -2098,8 +2330,14 @@
         <v>211</v>
       </c>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>44372</v>
       </c>
@@ -2133,8 +2371,16 @@
       <c r="K28" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L28" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>44372</v>
       </c>
@@ -2168,8 +2414,16 @@
       <c r="K29" s="10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L29" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>44372</v>
       </c>
@@ -2203,8 +2457,16 @@
       <c r="K30" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L30" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>44372</v>
       </c>
@@ -2238,8 +2500,16 @@
       <c r="K31" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L31" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>44372</v>
       </c>
@@ -2273,8 +2543,16 @@
       <c r="K32" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L32" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>44372</v>
       </c>
@@ -2308,8 +2586,16 @@
       <c r="K33" s="10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L33" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>44372</v>
       </c>
@@ -2343,8 +2629,16 @@
       <c r="K34" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L34" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>44372</v>
       </c>
@@ -2378,8 +2672,16 @@
       <c r="K35" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L35" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>44372</v>
       </c>
@@ -2413,8 +2715,27 @@
       <c r="K36" s="13" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L36" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q36" s="2" t="str">
+        <f>K36</f>
+        <v>Remove C2996 from codelist and replace with C8106.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>44372</v>
       </c>
@@ -2448,8 +2769,18 @@
       <c r="K37" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L37" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>44372</v>
       </c>
@@ -2483,8 +2814,16 @@
       <c r="K38" s="10" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L38" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>44372</v>
       </c>
@@ -2518,8 +2857,16 @@
       <c r="K39" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L39" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>44372</v>
       </c>
@@ -2553,8 +2900,16 @@
       <c r="K40" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L40" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>44372</v>
       </c>
@@ -2588,8 +2943,16 @@
       <c r="K41" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L41" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>44372</v>
       </c>
@@ -2623,8 +2986,16 @@
       <c r="K42" s="10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L42" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>44372</v>
       </c>
@@ -2658,8 +3029,16 @@
       <c r="K43" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L43" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>44372</v>
       </c>
@@ -2693,8 +3072,16 @@
       <c r="K44" s="10" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L44" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44372</v>
       </c>
@@ -2728,8 +3115,16 @@
       <c r="K45" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L45" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>44372</v>
       </c>
@@ -2763,8 +3158,16 @@
       <c r="K46" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L46" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>44372</v>
       </c>
@@ -2798,8 +3201,16 @@
       <c r="K47" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="L47" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44372</v>
       </c>
@@ -2833,8 +3244,16 @@
       <c r="K48" s="10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L48" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>44372</v>
       </c>
@@ -2866,8 +3285,14 @@
         <v>69</v>
       </c>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>44372</v>
       </c>
@@ -2899,8 +3324,14 @@
         <v>69</v>
       </c>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>44372</v>
       </c>
@@ -2932,8 +3363,14 @@
         <v>71</v>
       </c>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44372</v>
       </c>
@@ -2965,8 +3402,14 @@
         <v>72</v>
       </c>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>44372</v>
       </c>
@@ -2998,8 +3441,14 @@
         <v>75</v>
       </c>
       <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>44372</v>
       </c>
@@ -3031,8 +3480,14 @@
         <v>77</v>
       </c>
       <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>44372</v>
       </c>
@@ -3064,8 +3519,14 @@
         <v>78</v>
       </c>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>44372</v>
       </c>
@@ -3097,8 +3558,14 @@
         <v>79</v>
       </c>
       <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>44372</v>
       </c>
@@ -3130,8 +3597,14 @@
         <v>17</v>
       </c>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>44372</v>
       </c>
@@ -3163,8 +3636,14 @@
         <v>82</v>
       </c>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>44372</v>
       </c>
@@ -3196,8 +3675,14 @@
         <v>85</v>
       </c>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>44372</v>
       </c>
@@ -3229,8 +3714,14 @@
         <v>87</v>
       </c>
       <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>44372</v>
       </c>
@@ -3262,8 +3753,14 @@
         <v>89</v>
       </c>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>44372</v>
       </c>
@@ -3295,8 +3792,14 @@
         <v>85</v>
       </c>
       <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>44372</v>
       </c>
@@ -3328,8 +3831,14 @@
         <v>91</v>
       </c>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>44372</v>
       </c>
@@ -3361,8 +3870,14 @@
         <v>92</v>
       </c>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>44372</v>
       </c>
@@ -3394,8 +3909,14 @@
         <v>93</v>
       </c>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>44372</v>
       </c>
@@ -3427,8 +3948,14 @@
         <v>95</v>
       </c>
       <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>44372</v>
       </c>
@@ -3460,8 +3987,14 @@
         <v>63</v>
       </c>
       <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>44372</v>
       </c>
@@ -3493,8 +4026,14 @@
         <v>96</v>
       </c>
       <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>44372</v>
       </c>
@@ -3526,8 +4065,14 @@
         <v>97</v>
       </c>
       <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>44372</v>
       </c>
@@ -3559,8 +4104,14 @@
         <v>99</v>
       </c>
       <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>44372</v>
       </c>
@@ -3592,8 +4143,14 @@
         <v>17</v>
       </c>
       <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>44372</v>
       </c>
@@ -3625,8 +4182,14 @@
         <v>103</v>
       </c>
       <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>44372</v>
       </c>
@@ -3658,8 +4221,14 @@
         <v>103</v>
       </c>
       <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>44372</v>
       </c>
@@ -3691,8 +4260,14 @@
         <v>46</v>
       </c>
       <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>44372</v>
       </c>
@@ -3724,8 +4299,14 @@
         <v>48</v>
       </c>
       <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>44372</v>
       </c>
@@ -3757,8 +4338,14 @@
         <v>49</v>
       </c>
       <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>44372</v>
       </c>
@@ -3790,8 +4377,14 @@
         <v>50</v>
       </c>
       <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>44372</v>
       </c>
@@ -3823,8 +4416,14 @@
         <v>52</v>
       </c>
       <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>44372</v>
       </c>
@@ -3856,8 +4455,14 @@
         <v>54</v>
       </c>
       <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>44372</v>
       </c>
@@ -3889,8 +4494,14 @@
         <v>56</v>
       </c>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>44372</v>
       </c>
@@ -3922,8 +4533,14 @@
         <v>57</v>
       </c>
       <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>44372</v>
       </c>
@@ -3955,8 +4572,14 @@
         <v>58</v>
       </c>
       <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>44372</v>
       </c>
@@ -3988,8 +4611,14 @@
         <v>66</v>
       </c>
       <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>44372</v>
       </c>
@@ -4021,8 +4650,14 @@
         <v>118</v>
       </c>
       <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>44372</v>
       </c>
@@ -4054,8 +4689,14 @@
         <v>69</v>
       </c>
       <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>44372</v>
       </c>
@@ -4087,8 +4728,14 @@
         <v>71</v>
       </c>
       <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>44372</v>
       </c>
@@ -4120,8 +4767,14 @@
         <v>72</v>
       </c>
       <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>44372</v>
       </c>
@@ -4153,8 +4806,14 @@
         <v>75</v>
       </c>
       <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>44372</v>
       </c>
@@ -4186,8 +4845,14 @@
         <v>77</v>
       </c>
       <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>44372</v>
       </c>
@@ -4219,8 +4884,14 @@
         <v>78</v>
       </c>
       <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>44372</v>
       </c>
@@ -4252,8 +4923,14 @@
         <v>79</v>
       </c>
       <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>44372</v>
       </c>
@@ -4285,8 +4962,14 @@
         <v>17</v>
       </c>
       <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>44372</v>
       </c>
@@ -4318,8 +5001,14 @@
         <v>82</v>
       </c>
       <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>44372</v>
       </c>
@@ -4351,8 +5040,14 @@
         <v>120</v>
       </c>
       <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>44372</v>
       </c>
@@ -4384,8 +5079,14 @@
         <v>87</v>
       </c>
       <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+    </row>
+    <row r="96" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>44372</v>
       </c>
@@ -4417,8 +5118,14 @@
         <v>89</v>
       </c>
       <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+    </row>
+    <row r="97" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>44372</v>
       </c>
@@ -4450,8 +5157,14 @@
         <v>85</v>
       </c>
       <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>44372</v>
       </c>
@@ -4483,8 +5196,14 @@
         <v>91</v>
       </c>
       <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>44372</v>
       </c>
@@ -4516,8 +5235,14 @@
         <v>92</v>
       </c>
       <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="100" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>44372</v>
       </c>
@@ -4549,8 +5274,14 @@
         <v>93</v>
       </c>
       <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+    </row>
+    <row r="101" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>44372</v>
       </c>
@@ -4582,8 +5313,14 @@
         <v>95</v>
       </c>
       <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+    </row>
+    <row r="102" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>44372</v>
       </c>
@@ -4615,8 +5352,14 @@
         <v>63</v>
       </c>
       <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+    </row>
+    <row r="103" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>44372</v>
       </c>
@@ -4648,8 +5391,14 @@
         <v>96</v>
       </c>
       <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+    </row>
+    <row r="104" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>44372</v>
       </c>
@@ -4681,8 +5430,14 @@
         <v>97</v>
       </c>
       <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+    </row>
+    <row r="105" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>44372</v>
       </c>
@@ -4714,8 +5469,14 @@
         <v>99</v>
       </c>
       <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+    </row>
+    <row r="106" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>44372</v>
       </c>
@@ -4747,8 +5508,14 @@
         <v>17</v>
       </c>
       <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+    </row>
+    <row r="107" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>44372</v>
       </c>
@@ -4780,8 +5547,14 @@
         <v>103</v>
       </c>
       <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>44372</v>
       </c>
@@ -4813,8 +5586,14 @@
         <v>121</v>
       </c>
       <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>44372</v>
       </c>
@@ -4846,8 +5625,14 @@
         <v>46</v>
       </c>
       <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+    </row>
+    <row r="110" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>44372</v>
       </c>
@@ -4879,8 +5664,14 @@
         <v>48</v>
       </c>
       <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+    </row>
+    <row r="111" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>44372</v>
       </c>
@@ -4912,8 +5703,14 @@
         <v>49</v>
       </c>
       <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+    </row>
+    <row r="112" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>44372</v>
       </c>
@@ -4945,8 +5742,14 @@
         <v>50</v>
       </c>
       <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+    </row>
+    <row r="113" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>44372</v>
       </c>
@@ -4978,8 +5781,14 @@
         <v>52</v>
       </c>
       <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+    </row>
+    <row r="114" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>44372</v>
       </c>
@@ -5011,8 +5820,14 @@
         <v>54</v>
       </c>
       <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+    </row>
+    <row r="115" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>44372</v>
       </c>
@@ -5044,8 +5859,14 @@
         <v>56</v>
       </c>
       <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+    </row>
+    <row r="116" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>44372</v>
       </c>
@@ -5077,8 +5898,14 @@
         <v>57</v>
       </c>
       <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+    </row>
+    <row r="117" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>44372</v>
       </c>
@@ -5110,8 +5937,14 @@
         <v>58</v>
       </c>
       <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+    </row>
+    <row r="118" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>44372</v>
       </c>
@@ -5143,8 +5976,14 @@
         <v>66</v>
       </c>
       <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+    </row>
+    <row r="119" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>44372</v>
       </c>
@@ -5176,8 +6015,14 @@
         <v>131</v>
       </c>
       <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+    </row>
+    <row r="120" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>44372</v>
       </c>
@@ -5209,8 +6054,14 @@
         <v>134</v>
       </c>
       <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+    </row>
+    <row r="121" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>44372</v>
       </c>
@@ -5242,8 +6093,14 @@
         <v>145</v>
       </c>
       <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+    </row>
+    <row r="122" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>44372</v>
       </c>
@@ -5275,8 +6132,14 @@
         <v>146</v>
       </c>
       <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+    </row>
+    <row r="123" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>44372</v>
       </c>
@@ -5308,8 +6171,14 @@
         <v>141</v>
       </c>
       <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+    </row>
+    <row r="124" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>44372</v>
       </c>
@@ -5341,8 +6210,14 @@
         <v>154</v>
       </c>
       <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+    </row>
+    <row r="125" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>44372</v>
       </c>
@@ -5374,8 +6249,14 @@
         <v>157</v>
       </c>
       <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+    </row>
+    <row r="126" spans="1:17" s="8" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>44372</v>
       </c>
@@ -5407,8 +6288,14 @@
         <v>17</v>
       </c>
       <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+    </row>
+    <row r="127" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>44372</v>
       </c>
@@ -5440,8 +6327,14 @@
         <v>183</v>
       </c>
       <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+    </row>
+    <row r="128" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>44372</v>
       </c>
@@ -5473,8 +6366,14 @@
         <v>187</v>
       </c>
       <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+    </row>
+    <row r="129" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>44372</v>
       </c>
@@ -5506,8 +6405,14 @@
         <v>17</v>
       </c>
       <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+    </row>
+    <row r="130" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>44372</v>
       </c>
@@ -5539,8 +6444,14 @@
         <v>17</v>
       </c>
       <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>44372</v>
       </c>
@@ -5572,8 +6483,14 @@
         <v>187</v>
       </c>
       <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+    </row>
+    <row r="132" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>44372</v>
       </c>
@@ -5605,8 +6522,14 @@
         <v>17</v>
       </c>
       <c r="K132" s="10"/>
-    </row>
-    <row r="133" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+    </row>
+    <row r="133" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>44372</v>
       </c>
@@ -5638,8 +6561,14 @@
         <v>17</v>
       </c>
       <c r="K133" s="10"/>
-    </row>
-    <row r="134" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+    </row>
+    <row r="134" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>44372</v>
       </c>
@@ -5671,8 +6600,14 @@
         <v>134</v>
       </c>
       <c r="K134" s="10"/>
-    </row>
-    <row r="135" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+    </row>
+    <row r="135" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>44372</v>
       </c>
@@ -5704,8 +6639,14 @@
         <v>198</v>
       </c>
       <c r="K135" s="10"/>
-    </row>
-    <row r="136" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+    </row>
+    <row r="136" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>44372</v>
       </c>
@@ -5737,12 +6678,20 @@
         <v>199</v>
       </c>
       <c r="K136" s="10"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K136">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K136">
-      <sortCondition ref="C1:C136"/>
-    </sortState>
+  <autoFilter ref="A1:Q136" xr:uid="{683B26EE-93F1-2441-9F68-FFD8B9ED6730}">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/db/load/cdisc/ct/changes/2021-06-25/SEND Terminology Changes 2021-06-25.xlsx
+++ b/db/load/cdisc/ct/changes/2021-06-25/SEND Terminology Changes 2021-06-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-06-25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B415CF4-AB66-B842-A7C4-BEFD114B77E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A8A9C-B624-464F-A6F8-0DB693F8BEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="35980" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38880" yWindow="500" windowWidth="35980" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEND Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="255">
   <si>
     <t>Release Date</t>
   </si>
@@ -1214,8 +1214,8 @@
   <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P143" sqref="P143"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2774,9 +2774,7 @@
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
@@ -3409,7 +3407,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>44372</v>
       </c>
@@ -3448,7 +3446,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>44372</v>
       </c>
@@ -3526,7 +3524,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>44372</v>
       </c>
@@ -3682,7 +3680,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>44372</v>
       </c>
@@ -4579,7 +4577,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>44372</v>
       </c>
@@ -4774,7 +4772,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>44372</v>
       </c>
@@ -4813,7 +4811,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>44372</v>
       </c>
@@ -4891,7 +4889,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>44372</v>
       </c>
@@ -5047,7 +5045,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>44372</v>
       </c>
@@ -5944,7 +5942,7 @@
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
     </row>
-    <row r="118" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>44372</v>
       </c>
@@ -6256,7 +6254,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
     </row>
-    <row r="126" spans="1:17" s="8" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>44372</v>
       </c>
@@ -6607,7 +6605,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
     </row>
-    <row r="135" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" s="8" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>44372</v>
       </c>
